--- a/textToOps/data/processed/corpora_unique_ops_dropped.xlsx
+++ b/textToOps/data/processed/corpora_unique_ops_dropped.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -786,21 +786,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>What are the land use inside the flood zones in Oleander</t>
+          <t>What are the four fire stations with shortest network-based paths to 1202 Twin Peaks Blvd in San Francisco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>highway=*, name=Twin Peaks Boulevard, amenity=fire_station</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>done</t>
@@ -813,7 +817,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -833,34 +837,30 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>What are the vegetation areas larger than 6000 square meters in the Cape Peninsula</t>
+          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nature : glacier, landuse =forest, wetland=mangrove </t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>done</t>
@@ -873,17 +873,29 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -893,25 +905,25 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What are the vote totals of an election for each precinct in Dallas</t>
+          <t>What are the land use inside the flood zones in Oleander</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -924,15 +936,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -945,36 +961,32 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>What area are within 50 km from family physician services in Saskatchewan</t>
+          <t>What are the two fire stations closest to each school in Utrecht</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>amenity=doctor</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -989,12 +1001,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1009,32 +1021,32 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What areas are at least 3000 meters from the rivers in Spain</t>
+          <t>What are the vegetation areas larger than 6000 square meters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t xml:space="preserve">nature : glacier, landuse =forest, wetland=mangrove </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1049,12 +1061,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1069,34 +1081,30 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>What areas are inside 1000 foot of schools in El Cajon</t>
+          <t>What are the vote totals of an election for each precinct in Dallas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>amenity=school, amenity=kindergarten</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>done</t>
@@ -1104,19 +1112,15 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1129,30 +1133,38 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>What areas are more than 5000 meters from the roads in Spain</t>
+          <t>What area are within 50 km from family physician services in Saskatchewan</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>amenity=doctor</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>done</t>
@@ -1194,23 +1206,23 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>What areas are not park in Houston</t>
+          <t>What areas are at least 3000 meters from the rivers in Spain</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>waterway=river</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1223,8 +1235,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1237,32 +1257,32 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>What areas are not wetlands in Houston</t>
+          <t>What areas are inside 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>natural=wetland</t>
+          <t>amenity=school, amenity=kindergarten</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1275,8 +1295,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1289,34 +1317,30 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from hospitals in Houston</t>
+          <t>What areas are more than 5000 meters from the roads in Spain</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>amenity=hospital</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>done</t>
@@ -1358,11 +1382,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from schools in Houston</t>
+          <t>What areas are not flood plain in Houston</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1372,11 +1396,7 @@
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>amenity=school</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>done</t>
@@ -1389,14 +1409,10 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1409,20 +1425,20 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
+          <t>What areas are not green belt areas in Houston</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1432,11 +1448,7 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>leisure=nature_reserve</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>done</t>
@@ -1449,14 +1461,10 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1469,32 +1477,32 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
+          <t>What areas are not park in Houston</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>residential=*</t>
+          <t>leisure=park</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1507,16 +1515,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1529,20 +1529,20 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>What areas are outside 300 meters from streams in Houston</t>
+          <t>What areas are not wetlands in Houston</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1554,7 +1554,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>waterway=stream</t>
+          <t>natural=wetland</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1567,16 +1567,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1589,32 +1581,32 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>What areas are outside 3000 meters of the rivers in Spain</t>
+          <t>What areas are outside 150 meters from hospitals in Houston</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1658,27 +1650,23 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>What areas are outside 5 km of water bodies in Assam</t>
+          <t>What areas are outside 150 meters from schools in Houston</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1722,23 +1710,23 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>What areas are outside 5000 meters of the roads in Spain</t>
+          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>leisure=nature_reserve</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1782,16 +1770,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from residence in Houston</t>
+          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1842,11 +1830,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from water body in Houston</t>
+          <t>What areas are outside 300 meters from streams in Houston</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1858,7 +1846,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>waterway=stream</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1902,23 +1890,23 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>What areas are within 10 miles of current transmission lines with a voltage greater than 400 in Colorado</t>
+          <t>What areas are outside 3000 meters of the rivers in Spain</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>power=line</t>
+          <t>waterway=river</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1962,23 +1950,27 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>What areas are within 100 meters of cameras in Salford</t>
+          <t>What areas are outside 5 km of water bodies in Assam</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Salford</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>man_made=surveillance, highway=speed_camera</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2022,23 +2014,23 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>What areas are within 100 meters of the hospitals in Oleander</t>
+          <t>What areas are outside 5000 meters of the roads in Spain</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2082,27 +2074,23 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">What areas are within 1000 meters of roads in Assam </t>
+          <t>What areas are outside 60 meters from residence in Houston</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>residential=*</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2146,23 +2134,23 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the arcades in Oleander</t>
+          <t>What areas are outside 60 meters from water body in Houston</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>leisure=amusement_arcade</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2206,23 +2194,23 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the major transport routes in Amsterdam</t>
+          <t>What areas are within 10 miles of current transmission lines with a voltage greater than 400 in Colorado</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>power=line</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2266,23 +2254,23 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the schools in Oleander</t>
+          <t>What areas are within 100 meters of cameras in Salford</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Salford</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>man_made=surveillance, highway=speed_camera</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2326,27 +2314,23 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">What areas are within 15 minutes walking distance of a metro rail station in Kochi </t>
+          <t>What areas are within 100 meters of the hospitals in Oleander</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kochi</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>highway=*,railway=station,station=subway</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2361,24 +2345,16 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2389,32 +2365,36 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
+          <t xml:space="preserve">What areas are within 1000 meters of roads in Assam </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>shop=florist</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2429,24 +2409,16 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2457,20 +2429,20 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
+          <t>What areas are within 1000 meters of the arcades in Oleander</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2482,7 +2454,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>leisure=playground</t>
+          <t>leisure=amusement_arcade</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2526,23 +2498,23 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>What areas are within 300 meters of runways in Schiphol airport</t>
+          <t>What areas are within 1000 meters of the major transport routes in Amsterdam</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Schiphol airport</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>aeroway=runway</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2586,23 +2558,23 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
+          <t>What areas are within 1000 meters of the schools in Oleander</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>landuse=religious</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2646,23 +2618,27 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
+          <t xml:space="preserve">What areas are within 15 minutes walking distance of a metro rail station in Kochi </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>Kochi</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>amenity=university</t>
+          <t>highway=*,railway=station,station=subway</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2677,16 +2653,24 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2697,32 +2681,32 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="V37" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
+          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> aeroway=*</t>
+          <t>shop=florist</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2774,23 +2758,23 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>What areas are within 800 meter from major highways in Houston</t>
+          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>leisure=playground</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2834,25 +2818,21 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
+          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>amenity=restaurant</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>done</t>
@@ -2865,18 +2845,34 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -2885,32 +2881,32 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="V40" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a store in Gresham</t>
+          <t>What areas are within 300 meters of runways in Schiphol airport</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Schiphol airport</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>shop=*</t>
+          <t>aeroway=runway</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2954,23 +2950,23 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
+          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>railway=tram_stop, light_rail</t>
+          <t>landuse=religious</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3014,27 +3010,23 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>What areas are within one mile of main roads in Loudoun County in US</t>
+          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Karbala, Iraq</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>amenity=university</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3078,21 +3070,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
+          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Crook, Deschutes, Jefferson county</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> aeroway=*</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>done</t>
@@ -3100,22 +3096,22 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
           <t>classification</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3133,30 +3129,34 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="V44" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>What areas do have slope larger than 10 percent in Spain</t>
+          <t>What areas are within 800 meter from major highways in Houston</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>highway=motorway</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>done</t>
@@ -3164,29 +3164,21 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -3197,30 +3189,34 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="V45" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
+          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>amenity=restaurant</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>done</t>
@@ -3228,29 +3224,21 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -3261,30 +3249,34 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="V46" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
+          <t>What areas are within a quarter mile of a store in Gresham</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>shop=*</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>done</t>
@@ -3292,29 +3284,21 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -3325,32 +3309,32 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="V47" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
+          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>highway=motorway, building=house</t>
+          <t>railway=tram_stop, light_rail</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3373,11 +3357,7 @@
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
@@ -3389,34 +3369,30 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="V48" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
+          <t>What areas are within a quarter mile of planned commercial district in Gresham</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>leisure=park, building=house</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
           <t>done</t>
@@ -3424,22 +3400,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
           <t>Buffer</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -3453,32 +3429,36 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="V49" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>What houses are for sale in urban areas in Utrecht</t>
+          <t>What areas are within one mile of main roads in Loudoun County in US</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3493,12 +3473,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3513,28 +3493,32 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="V50" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>What is the area of currently mixed use zones in Gresham</t>
+          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Gresham</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
@@ -3552,8 +3536,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -3565,33 +3557,29 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="V51" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
+          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">the Western USA </t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>from 1970 to 1994</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
@@ -3600,17 +3588,29 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -3621,34 +3621,30 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="V52" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>What is the density surface of rainfall measurements in the Netherlands</t>
+          <t>What areas do have slope larger than 10 percent in Spain</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>the Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
           <t>done</t>
@@ -3656,17 +3652,29 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -3677,32 +3685,32 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="V53" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>What is the density surface of temperature measurements in Oleander city</t>
+          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Oleander city</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>monitoring:weather=yes</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3712,17 +3720,29 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -3733,25 +3753,25 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="V54" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to green areas in Amsterdam</t>
+          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -3764,17 +3784,29 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -3785,34 +3817,30 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="V55" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to hospitals in Oleander</t>
+          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>amenity=hospital</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
           <t>done</t>
@@ -3820,17 +3848,29 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -3841,34 +3881,30 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="V56" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
+          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>landuse=recreation_ground</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
           <t>done</t>
@@ -3876,17 +3912,29 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -3897,20 +3945,20 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="V57" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to schools in Utrecht</t>
+          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3922,7 +3970,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>highway=motorway, building=house</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3937,11 +3985,19 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
@@ -3953,30 +4009,34 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="V58" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
+          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>amenity=school, building=house</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
           <t>done</t>
@@ -3984,17 +4044,29 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -4005,30 +4077,34 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="V59" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
+          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>shop=*, building=house</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
           <t>done</t>
@@ -4036,17 +4112,29 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -4057,30 +4145,34 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="V60" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>leisure=park, building=house</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>done</t>
@@ -4093,11 +4185,19 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -4109,34 +4209,34 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="V61" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>What is the kernel density of crime in Surrey in UK</t>
+          <t>What houses are for sale in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Surrey</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>boundary=urban, building=house</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
           <t>done</t>
@@ -4149,10 +4249,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -4165,32 +4269,28 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="V62" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>What is the kernel density of traffic accidents in Pasadena</t>
+          <t>What is the area of currently mixed use zones in Gresham</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Pasadena</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
+          <t>Gresham</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
@@ -4200,12 +4300,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -4221,34 +4321,30 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="V63" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>What is the land use in Netherlands</t>
+          <t>What is the average rating of street pavement for each borough in New York City</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>landuse=*</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
           <t>done</t>
@@ -4256,12 +4352,24 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
@@ -4273,30 +4381,34 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="V64" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>What is the land use in the Happy Valley resort</t>
+          <t>What is the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>the Happy Valley resort</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>amenity=bank</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
           <t>done</t>
@@ -4307,8 +4419,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -4321,30 +4441,34 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="V65" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>What is the literacy rate for each country in Africa</t>
+          <t>What is the central feature of fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>done</t>
@@ -4352,15 +4476,19 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -4373,31 +4501,31 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="V66" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
+          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>the Western USA</t>
+          <t xml:space="preserve">the Western USA </t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from 1970 to 1994</t>
+          <t>from 1970 to 1994</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4408,7 +4536,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4438,21 +4566,25 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+          <t>What is the density surface of rainfall measurements in the Netherlands</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>the Netherlands</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>done</t>
@@ -4490,11 +4622,11 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
+          <t>What is the density surface of temperature measurements in Oleander city</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4504,7 +4636,11 @@
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>done</t>
@@ -4542,25 +4678,21 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
+          <t>What is the Euclidean distance to green areas in Amsterdam</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=library</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
           <t>done</t>
@@ -4573,19 +4705,11 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -4597,32 +4721,32 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="V70" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+          <t>What is the Euclidean distance to hospitals in Oleander</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>shop=alcohol, leisure=park</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4637,19 +4761,11 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
@@ -4661,32 +4777,32 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="V71" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
+          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school</t>
+          <t>landuse=recreation_ground</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4701,19 +4817,11 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -4725,32 +4833,32 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="V72" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+          <t>What is the Euclidean distance to schools in Utrecht</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4765,19 +4873,11 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
@@ -4789,34 +4889,30 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="V73" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Where are forestry lands in Happy Valley ski resort</t>
+          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Tag:landuse=forestry</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
           <t>done</t>
@@ -4827,7 +4923,11 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
@@ -4841,34 +4941,30 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="V74" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Where are not conservation areas in UK</t>
+          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Crook, Deschutes, Jefferson county</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>landuse=conservation</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
           <t>done</t>
@@ -4881,14 +4977,10 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -4901,38 +4993,30 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="V75" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Where are not protected region in Assam </t>
+          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>landuse=conservation</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
           <t>done</t>
@@ -4945,14 +5029,10 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -4965,34 +5045,34 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="V76" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Where are the commercial areas in Amsterdam</t>
+          <t>What is the kernel density of crime in Surrey in UK</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>Surrey</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>landuse=commercial</t>
-        </is>
-      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
           <t>done</t>
@@ -5005,14 +5085,10 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -5025,34 +5101,34 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="V77" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Where are the fire stations in Utrecht</t>
+          <t>What is the kernel density of traffic accidents in Pasadena</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>Pasadena</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
           <t>done</t>
@@ -5065,14 +5141,10 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
@@ -5085,30 +5157,34 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="V78" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Where are the five star hotels in the Happy Valley ski resort</t>
+          <t>What is the land use in Netherlands</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>the Happy Valley ski resort</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>landuse=*</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr">
         <is>
           <t>done</t>
@@ -5119,16 +5195,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
@@ -5141,38 +5209,30 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="V79" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Where are the Hispanic food stores in Tarrant County</t>
+          <t>What is the land use in the Happy Valley resort</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>the Happy Valley resort</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>cuisine=latin_american</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
           <t>done</t>
@@ -5183,16 +5243,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
@@ -5205,34 +5257,30 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="V80" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Where are the industrial areas in Utrecht</t>
+          <t>What is the literacy rate for each country in Africa</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>landuse=industrial</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
           <t>done</t>
@@ -5240,19 +5288,15 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
@@ -5265,34 +5309,34 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="V81" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>the Western USA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>beds=*, tourism=hotel</t>
-        </is>
-      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 1970 to 1994</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
           <t>done</t>
@@ -5300,19 +5344,15 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
@@ -5325,34 +5365,30 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="V82" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Where are the rocky areas in Spain</t>
+          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>nature : bare_rock</t>
-        </is>
-      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
           <t>done</t>
@@ -5365,14 +5401,10 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -5385,34 +5417,30 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="V83" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Where are the ski pistes in Happy Valley ski resort</t>
+          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Oleander city</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>site=piste</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
           <t>done</t>
@@ -5425,14 +5453,10 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -5445,34 +5469,30 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="V84" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Which houses are for sale in Utrecht</t>
+          <t>What is the mean center of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>building=house</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
           <t>done</t>
@@ -5480,15 +5500,19 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
@@ -5501,34 +5525,34 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="V85" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
+          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
           <t>done</t>
@@ -5541,24 +5565,16 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -5569,34 +5585,30 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="V86" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>year_of_construction=*</t>
-        </is>
-      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
           <t>done</t>
@@ -5607,8 +5619,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
@@ -5621,34 +5641,34 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="V87" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Which land use contains meteorological stations in Netherlands</t>
+          <t>What is the median household income for each census block in Tarrant County</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
-        </is>
-      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
           <t>done</t>
@@ -5656,7 +5676,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5666,10 +5686,14 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
@@ -5681,34 +5705,34 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="V88" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Which park is biggest in Utrecht</t>
+          <t>What is the median people age for each census tract in Tarrant County</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>leisure=park</t>
-        </is>
-      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
           <t>done</t>
@@ -5716,20 +5740,24 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
@@ -5741,32 +5769,32 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="V89" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>opening_hours=*</t>
+          <t>shop=alcohol, amenity=library</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -5779,9 +5807,21 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -5793,32 +5833,32 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="V90" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>abandoned:*=*, highway=motorway</t>
+          <t>shop=alcohol, leisure=park</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -5866,23 +5906,23 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Which visitor facilities are in the Happy Valley</t>
+          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>information=visitor_centre</t>
+          <t>shop=alcohol, amenity=school</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -5895,9 +5935,21 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
@@ -5909,11 +5961,1403 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="V92" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>El Cajon</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="V93" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Where are forestry lands in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Tag:landuse=forestry</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr">
+        <is>
           <t>data queries</t>
         </is>
       </c>
-      <c r="V92" t="n">
+      <c r="V94" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Where are not conservation areas in UK</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>landuse=conservation</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="V95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Where are not protected region in Assam </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>landuse=conservation</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="V96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Where are the commercial areas in Amsterdam</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>landuse=commercial</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="V97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Where are the fire stations in Utrecht</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="V98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Where are the five star hotels in the Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>the Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="V99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Where are the Hispanic food stores in Tarrant County</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>cuisine=latin_american</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="V100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Where are the industrial areas in Utrecht</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>landuse=industrial</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="V101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>beds=*, tourism=hotel</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="V102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Where are the rocky areas in Spain</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>nature : bare_rock</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="V103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Where are the ski pistes in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>site=piste</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="V104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Which houses are for sale in Utrecht</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>building=house</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="V105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="V107" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>year_of_construction=*</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="V108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Which land use contains meteorological stations in Netherlands</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="V109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Which park is biggest in Utrecht</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>leisure=park</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="V110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="V111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>opening_hours=*</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="V112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Hillsboro</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>abandoned:*=*, highway=motorway</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="V113" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Which visitor facilities are in the Happy Valley</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>the Happy Valley</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>information=visitor_centre</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="V114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="V115" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/textToOps/data/processed/corpora_unique_ops_dropped.xlsx
+++ b/textToOps/data/processed/corpora_unique_ops_dropped.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:Y143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,10 +531,25 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>Tools</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Issues</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Column1</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>op_type</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>op_id</t>
         </is>
@@ -599,12 +614,15 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
         <is>
           <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -651,36 +669,35 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
         <is>
           <t>data queries</t>
         </is>
       </c>
-      <c r="V3" t="n">
+      <c r="Y3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>How many streetlights for each district in San Diego</t>
+          <t>What are the areas within a four-minute drive of each fire station at 2 a.m. on Tuesday in Utrecht</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>highway=street_lamp</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>done</t>
@@ -693,16 +710,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -711,32 +736,39 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>data queries,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>What are the areas within a four-minute drive of each fire station at 2 a.m. on Tuesday in Utrecht</t>
+          <t>What are the four fire stations with shortest network-based paths to 1202 Twin Peaks Blvd in San Francisco</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>highway=*, name=Twin Peaks Boulevard, amenity=fire_station</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>done</t>
@@ -749,24 +781,16 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -775,22 +799,25 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>What are the four fire stations with shortest network-based paths to 1202 Twin Peaks Blvd in San Francisco</t>
+          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -800,11 +827,7 @@
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>highway=*, name=Twin Peaks Boulevard, amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>done</t>
@@ -822,12 +845,24 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -835,32 +870,39 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,data queries</t>
-        </is>
-      </c>
-      <c r="V6" t="n">
-        <v>4</v>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
+          <t>What are the two fire stations closest to each school in Utrecht</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>done</t>
@@ -878,24 +920,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -903,27 +933,30 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
-        <v>5</v>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What are the land use inside the flood zones in Oleander</t>
+          <t>What are the vote totals of an election for each precinct in Dallas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -936,19 +969,15 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -959,34 +988,41 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>data queries,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="V8" t="n">
-        <v>2</v>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>What are the two fire stations closest to each school in Utrecht</t>
+          <t>What area are within 50 km from family physician services in Saskatchewan in Canada</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>amenity=doctor</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1001,12 +1037,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1019,34 +1055,37 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,data queries</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
-        <v>4</v>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What are the vegetation areas larger than 6000 square meters in the Cape Peninsula</t>
+          <t>What areas are at least 3000 meters from the rivers in Spain</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">nature : glacier, landuse =forest, wetland=mangrove </t>
+          <t>waterway=river</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1061,12 +1100,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1079,32 +1118,39 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="V10" t="n">
-        <v>8</v>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>What are the vote totals of an election for each precinct in Dallas</t>
+          <t>What areas are inside 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>amenity=school, amenity=kindergarten</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>done</t>
@@ -1112,15 +1158,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1131,40 +1181,35 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>data editing,data queries</t>
-        </is>
-      </c>
-      <c r="V11" t="n">
-        <v>9</v>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>What area are within 50 km from family physician services in Saskatchewan</t>
+          <t>What areas are more than 5000 meters from the roads in Spain</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>amenity=doctor</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>done</t>
@@ -1195,36 +1240,35 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V12" t="n">
+      <c r="Y12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>What areas are at least 3000 meters from the rivers in Spain</t>
+          <t>What areas are not flood plain in Houston</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>waterway=river</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>done</t>
@@ -1237,14 +1281,10 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1255,36 +1295,35 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V13" t="n">
-        <v>10</v>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y13" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>What areas are inside 1000 foot of schools in El Cajon</t>
+          <t>What areas are green belt areas in Houston</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>amenity=school, amenity=kindergarten</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>done</t>
@@ -1297,14 +1336,10 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1315,27 +1350,30 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V14" t="n">
-        <v>10</v>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y14" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>What areas are more than 5000 meters from the roads in Spain</t>
+          <t>What areas are not classified as flood plain in Houston</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1353,14 +1391,10 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1371,22 +1405,25 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V15" t="n">
-        <v>10</v>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y15" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>What areas are not flood plain in Houston</t>
+          <t>Tell me not flood plain area in Houston</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1423,22 +1460,25 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
         <is>
           <t>data queries,overlay analysis</t>
         </is>
       </c>
-      <c r="V16" t="n">
-        <v>12</v>
+      <c r="Y16" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>What areas are not green belt areas in Houston</t>
+          <t>What areas are not conatined as green belt areas in Houston</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1475,22 +1515,25 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
         <is>
           <t>data queries,overlay analysis</t>
         </is>
       </c>
-      <c r="V17" t="n">
-        <v>12</v>
+      <c r="Y17" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>What areas are not park in Houston</t>
+          <t>What areas are not green belt areas in Houston</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1500,11 +1543,7 @@
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>leisure=park</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>done</t>
@@ -1515,7 +1554,11 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -1527,22 +1570,25 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
-      <c r="V18" t="n">
-        <v>1</v>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>What areas are not wetlands in Houston</t>
+          <t>What areas are not park in Houston</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1554,7 +1600,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>natural=wetland</t>
+          <t>leisure=park</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1579,22 +1625,25 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
         <is>
           <t>data queries</t>
         </is>
       </c>
-      <c r="V19" t="n">
+      <c r="Y19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from hospitals in Houston</t>
+          <t>What areas are not wetlands in Houston</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1606,7 +1655,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>natural=wetland</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1619,16 +1668,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1639,22 +1680,25 @@
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V20" t="n">
-        <v>10</v>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from schools in Houston</t>
+          <t>What areas are outside 150 meters from hospitals in Houston</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1666,7 +1710,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1699,22 +1743,25 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V21" t="n">
+      <c r="Y21" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
+          <t>What areas are outside 150 meters from schools in Houston</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1726,7 +1773,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>leisure=nature_reserve</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1759,34 +1806,37 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V22" t="n">
+      <c r="Y22" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
+          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>residential=*</t>
+          <t>leisure=nature_reserve</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1819,34 +1869,37 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V23" t="n">
+      <c r="Y23" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>What areas are outside 300 meters from streams in Houston</t>
+          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>waterway=stream</t>
+          <t>residential=*</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1879,34 +1932,37 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V24" t="n">
+      <c r="Y24" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>What areas are outside 3000 meters of the rivers in Spain</t>
+          <t>What areas are outside 300 meters from streams in Houston</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t>waterway=stream</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1939,38 +1995,37 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V25" t="n">
+      <c r="Y25" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>What areas are outside 5 km of water bodies in Assam</t>
+          <t>What areas are outside 3000 meters of the rivers in Spain</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>waterway=river</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2003,34 +2058,41 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V26" t="n">
+      <c r="Y26" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>What areas are outside 5000 meters of the roads in Spain</t>
+          <t>What areas are outside 5 km of water bodies in Assam in India</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2063,34 +2125,37 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V27" t="n">
+      <c r="Y27" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from residence in Houston</t>
+          <t>What areas are outside 5000 meters of the roads in Spain</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>residential=*</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2123,22 +2188,25 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V28" t="n">
+      <c r="Y28" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from water body in Houston</t>
+          <t>What areas are outside 60 meters from residence in Houston</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2150,7 +2218,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>residential=*</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2183,34 +2251,37 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V29" t="n">
+      <c r="Y29" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>What areas are within 10 miles of current transmission lines with a voltage greater than 400 in Colorado</t>
+          <t>What areas are outside 60 meters from water body in Houston</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>power=line</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2243,34 +2314,37 @@
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V30" t="n">
+      <c r="Y30" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>What areas are within 100 meters of cameras in Salford</t>
+          <t>What areas are within 10 miles of current transmission lines with a voltage greater than 400 in Colorado</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Salford</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>man_made=surveillance, highway=speed_camera</t>
+          <t>power=line</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2303,22 +2377,25 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V31" t="n">
+      <c r="Y31" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>What areas are within 100 meters of the hospitals in Oleander</t>
+          <t>What areas are within 1000 meters of the arcades in Oleander</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2330,7 +2407,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>leisure=amusement_arcade</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2363,38 +2440,37 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V32" t="n">
+      <c r="Y32" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">What areas are within 1000 meters of roads in Assam </t>
+          <t>What areas are within 1000 meters of the schools in Oleander</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2427,34 +2503,41 @@
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V33" t="n">
+      <c r="Y33" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the arcades in Oleander</t>
+          <t>What areas are within 15 minutes walking distance of a metro rail station in Kochi in India</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>Kochi</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>leisure=amusement_arcade</t>
+          <t>highway=*,railway=station,station=subway</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2469,16 +2552,24 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2487,34 +2578,37 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V34" t="n">
-        <v>10</v>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the major transport routes in Amsterdam</t>
+          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>shop=florist</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2529,16 +2623,24 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2547,22 +2649,25 @@
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V35" t="n">
-        <v>10</v>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the schools in Oleander</t>
+          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2574,7 +2679,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>leisure=playground</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2607,40 +2712,35 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V36" t="n">
+      <c r="Y36" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">What areas are within 15 minutes walking distance of a metro rail station in Kochi </t>
+          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Kochi</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>highway=*,railway=station,station=subway</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>done</t>
@@ -2658,43 +2758,58 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
           <t>classification</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="Y37" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
+          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2704,11 +2819,7 @@
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>shop=florist</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>done</t>
@@ -2726,43 +2837,58 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>classification</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="Y38" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
+          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2772,11 +2898,7 @@
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>leisure=playground</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>done</t>
@@ -2789,40 +2911,63 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V39" t="n">
-        <v>10</v>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="Y39" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2879,36 +3024,39 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V40" t="n">
-        <v>14</v>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="Y40" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>What areas are within 300 meters of runways in Schiphol airport</t>
+          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Schiphol airport</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>aeroway=runway</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>done</t>
@@ -2921,52 +3069,75 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V41" t="n">
-        <v>10</v>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="Y41" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
+          <t>What areas are within 300 meters of runways in Schiphol airport</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Schiphol airport</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>landuse=religious</t>
+          <t>aeroway=runway</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2999,22 +3170,25 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V42" t="n">
+      <c r="Y42" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
+          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3026,7 +3200,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>amenity=university</t>
+          <t>landuse=religious</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3059,34 +3233,37 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V43" t="n">
+      <c r="Y43" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
+          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> aeroway=*</t>
+          <t>amenity=university</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3101,24 +3278,16 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -3127,34 +3296,37 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y44" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>What areas are within 800 meter from major highways in Houston</t>
+          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Crook, Deschutes, Jefferson county</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t xml:space="preserve"> aeroway=*</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3169,16 +3341,24 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -3187,34 +3367,37 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V45" t="n">
-        <v>10</v>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
+          <t>What areas are within 800 meter from major highways in Houston</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>amenity=restaurant</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3247,22 +3430,25 @@
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V46" t="n">
+      <c r="Y46" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a store in Gresham</t>
+          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3274,7 +3460,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>shop=*</t>
+          <t>amenity=restaurant</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3307,18 +3493,21 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V47" t="n">
+      <c r="Y47" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3367,32 +3556,43 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="V48" t="n">
+      <c r="Y48" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of planned commercial district in Gresham</t>
+          <t>What areas are within one mile of main roads in Loudoun County in US</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Gresham</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>highway=motorway</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>done</t>
@@ -3400,24 +3600,20 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -3427,40 +3623,35 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V49" t="n">
-        <v>16</v>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>What areas are within one mile of main roads in Loudoun County in US</t>
+          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>highway=motorway</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
           <t>done</t>
@@ -3468,21 +3659,29 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -3491,34 +3690,33 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V50" t="n">
-        <v>10</v>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y50" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
+          <t>What areas do have slope larger than 10 percent in Spain</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
@@ -3528,25 +3726,29 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -3555,22 +3757,25 @@
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V51" t="n">
-        <v>16</v>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y51" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
+          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3580,7 +3785,11 @@
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>done</t>
@@ -3588,7 +3797,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3619,22 +3828,25 @@
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V52" t="n">
-        <v>17</v>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y52" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>What areas do have slope larger than 10 percent in Spain</t>
+          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3644,7 +3856,11 @@
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
           <t>done</t>
@@ -3652,7 +3868,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3683,36 +3899,35 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V53" t="n">
-        <v>17</v>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y53" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
+          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>monitoring:weather=yes</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
           <t>done</t>
@@ -3751,22 +3966,25 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
         <is>
           <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
-      <c r="V54" t="n">
-        <v>19</v>
+      <c r="Y54" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3815,22 +4033,25 @@
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr">
         <is>
           <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
-      <c r="V55" t="n">
-        <v>19</v>
+      <c r="Y55" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
+          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3848,7 +4069,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3879,22 +4100,25 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V56" t="n">
-        <v>17</v>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y56" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
+          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3912,7 +4136,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3943,36 +4167,35 @@
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V57" t="n">
-        <v>17</v>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y57" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
+          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>highway=motorway, building=house</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
           <t>done</t>
@@ -3980,25 +4203,29 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -4007,36 +4234,35 @@
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="V58" t="n">
-        <v>21</v>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y58" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>amenity=school, building=house</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
           <t>done</t>
@@ -4044,27 +4270,27 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -4075,36 +4301,35 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="V59" t="n">
-        <v>22</v>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y59" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
+          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>shop=*, building=house</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
           <t>done</t>
@@ -4112,27 +4337,27 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="M60" t="inlineStr"/>
@@ -4143,22 +4368,25 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="V60" t="n">
-        <v>22</v>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y60" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
+          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4170,7 +4398,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>leisure=park, building=house</t>
+          <t>highway=motorway, building=house</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4207,22 +4435,25 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
-      <c r="V61" t="n">
-        <v>21</v>
+      <c r="Y61" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>What houses are for sale in urban areas in Utrecht</t>
+          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4234,7 +4465,7 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4244,21 +4475,29 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -4267,32 +4506,39 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>data queries,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="V62" t="n">
-        <v>2</v>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y62" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>What is the area of currently mixed use zones in Gresham</t>
+          <t>What houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>amenity=school, building=house</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>done</t>
@@ -4300,7 +4546,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4308,9 +4554,21 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -4319,32 +4577,39 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>data editing,data queries</t>
-        </is>
-      </c>
-      <c r="V63" t="n">
-        <v>9</v>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>What is the average rating of street pavement for each borough in New York City</t>
+          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>shop=*, building=house</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>done</t>
@@ -4352,25 +4617,29 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Data editing</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -4379,34 +4648,37 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
-        </is>
-      </c>
-      <c r="V64" t="n">
-        <v>26</v>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y64" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>What is the central feature of bank branches in Oleander</t>
+          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4416,21 +4688,29 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4439,34 +4719,37 @@
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
-        </is>
-      </c>
-      <c r="V65" t="n">
-        <v>28</v>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y65" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>What is the central feature of fire station in Fort Worth</t>
+          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>amenity=fire_station</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4476,21 +4759,29 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -4499,36 +4790,39 @@
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
-        </is>
-      </c>
-      <c r="V66" t="n">
-        <v>28</v>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y66" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
+          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">the Western USA </t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>from 1970 to 1994</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>shop=*, building=house</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>done</t>
@@ -4536,7 +4830,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4544,9 +4838,21 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -4555,34 +4861,37 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>data editing,data queries</t>
-        </is>
-      </c>
-      <c r="V67" t="n">
-        <v>9</v>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y67" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>What is the density surface of rainfall measurements in the Netherlands</t>
+          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>the Netherlands</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>leisure=park, building=house</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4597,11 +4906,19 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -4611,34 +4928,37 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="V68" t="n">
-        <v>32</v>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y68" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>What is the density surface of temperature measurements in Oleander city</t>
+          <t>What houses are for sale outside flood zone in Utrecht</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Oleander city</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4653,10 +4973,14 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
@@ -4667,32 +4991,43 @@
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="V69" t="n">
-        <v>32</v>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="Y69" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to green areas in Amsterdam</t>
+          <t>What houses are for sale in flood zone in Utrecht</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>boundary=urban, building=house</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>done</t>
@@ -4705,10 +5040,14 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -4719,34 +5058,41 @@
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="V70" t="n">
-        <v>32</v>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="Y70" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to hospitals in Oleander</t>
+          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4761,10 +5107,14 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
@@ -4775,22 +5125,29 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="V71" t="n">
-        <v>32</v>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="Y71" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
+          <t>What houses are larger than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4802,7 +5159,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>landuse=recreation_ground</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4817,10 +5174,14 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -4831,22 +5192,29 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="V72" t="n">
-        <v>32</v>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="Y72" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to schools in Utrecht</t>
+          <t>What houses are greather than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4858,7 +5226,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4873,10 +5241,14 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
@@ -4887,32 +5259,43 @@
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="V73" t="n">
-        <v>32</v>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="Y73" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
+          <t>What houses are for sale in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>boundary=urban, building=house</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
           <t>done</t>
@@ -4925,10 +5308,14 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -4939,27 +5326,34 @@
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="V74" t="n">
-        <v>32</v>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="Y74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
+          <t>What is the area of currently mixed use zones in Gresham</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -4972,12 +5366,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -4991,27 +5385,30 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="V75" t="n">
-        <v>32</v>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y75" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+          <t>What is the average rating of street pavement for each borough in New York City</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -5024,16 +5421,24 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -5043,36 +5448,39 @@
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="V76" t="n">
-        <v>32</v>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y76" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>What is the kernel density of crime in Surrey in UK</t>
+          <t>Show me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Surrey</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>amenity=bank</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
           <t>done</t>
@@ -5085,10 +5493,14 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -5101,34 +5513,41 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="V77" t="n">
-        <v>32</v>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="Y77" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>What is the kernel density of traffic accidents in Pasadena</t>
+          <t>Tell me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Pasadena</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>amenity=bank</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>done</t>
@@ -5141,10 +5560,14 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
@@ -5157,32 +5580,39 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="V78" t="n">
-        <v>32</v>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="Y78" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>What is the land use in Netherlands</t>
+          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>landuse=*</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5195,8 +5625,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
@@ -5209,30 +5647,41 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>data queries</t>
-        </is>
-      </c>
-      <c r="V79" t="n">
-        <v>1</v>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="Y79" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>What is the land use in the Happy Valley resort</t>
+          <t>What is weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>the Happy Valley resort</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>amenity=bank</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr">
         <is>
           <t>done</t>
@@ -5243,8 +5692,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
@@ -5257,30 +5714,41 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>data queries</t>
-        </is>
-      </c>
-      <c r="V80" t="n">
-        <v>1</v>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="Y80" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>What is the literacy rate for each country in Africa</t>
+          <t>What is the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>amenity=bank</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr">
         <is>
           <t>done</t>
@@ -5288,15 +5756,19 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
@@ -5309,31 +5781,38 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
-        </is>
-      </c>
-      <c r="V81" t="n">
-        <v>9</v>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="Y81" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
+          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>the Western USA</t>
+          <t xml:space="preserve">the Western USA </t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> from 1970 to 1994</t>
+          <t>from 1970 to 1994</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5344,7 +5823,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5363,32 +5842,39 @@
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr">
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr">
         <is>
           <t>data editing,data queries</t>
         </is>
       </c>
-      <c r="V82" t="n">
+      <c r="Y82" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+          <t>What is the density surface of rainfall measurements in the Netherlands</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>the Netherlands</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
           <t>done</t>
@@ -5415,22 +5901,25 @@
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr">
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr">
         <is>
           <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
-      <c r="V83" t="n">
-        <v>32</v>
+      <c r="Y83" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
+          <t>What is the density surface of temperature measurements in Oleander city</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5440,7 +5929,11 @@
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
           <t>done</t>
@@ -5467,27 +5960,30 @@
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr">
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr">
         <is>
           <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
-      <c r="V84" t="n">
-        <v>32</v>
+      <c r="Y84" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>What is the mean center of library patrons for each district in Oleander</t>
+          <t>What is the Euclidean distance to green areas in Amsterdam</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -5505,14 +6001,10 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
@@ -5523,36 +6015,39 @@
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
-        </is>
-      </c>
-      <c r="V85" t="n">
-        <v>35</v>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Y85" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
+          <t>What is the Euclidean distance to hospitals in Oleander</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>amenity=hospital</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
           <t>done</t>
@@ -5565,14 +6060,10 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
@@ -5583,32 +6074,39 @@
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
-        </is>
-      </c>
-      <c r="V86" t="n">
-        <v>35</v>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Y86" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
+          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>landuse=recreation_ground</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
           <t>done</t>
@@ -5621,14 +6119,10 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
@@ -5639,36 +6133,39 @@
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
-        </is>
-      </c>
-      <c r="V87" t="n">
-        <v>35</v>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Y87" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>What is the median household income for each census block in Tarrant County</t>
+          <t>What is the Euclidean distance to schools in Utrecht</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>amenity=school</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>done</t>
@@ -5676,24 +6173,16 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
@@ -5703,34 +6192,33 @@
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
-        </is>
-      </c>
-      <c r="V88" t="n">
-        <v>26</v>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Y88" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>What is the median people age for each census tract in Tarrant County</t>
+          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
@@ -5740,24 +6228,16 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
@@ -5767,36 +6247,35 @@
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
-        </is>
-      </c>
-      <c r="V89" t="n">
-        <v>26</v>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Y89" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
+          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Crook, Deschutes, Jefferson county</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=library</t>
-        </is>
-      </c>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
           <t>done</t>
@@ -5809,19 +6288,11 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -5831,36 +6302,35 @@
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="V90" t="n">
-        <v>21</v>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Y90" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>shop=alcohol, leisure=park</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
           <t>done</t>
@@ -5873,19 +6343,11 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -5895,36 +6357,39 @@
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="V91" t="n">
-        <v>21</v>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Y91" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
+          <t>What is the kernel density of crime in Surrey in UK</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>El Cajon</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>Surrey</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=school</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
           <t>done</t>
@@ -5937,19 +6402,11 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
@@ -5959,36 +6416,39 @@
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="V92" t="n">
-        <v>21</v>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Y92" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>El Cajon</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>Pasadena</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
           <t>done</t>
@@ -6001,19 +6461,11 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
@@ -6023,34 +6475,37 @@
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="V93" t="n">
-        <v>21</v>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Y93" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Where are forestry lands in Happy Valley ski resort</t>
+          <t>What is the land use in Netherlands</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Tag:landuse=forestry</t>
+          <t>landuse=*</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6075,36 +6530,35 @@
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr">
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr">
         <is>
           <t>data queries</t>
         </is>
       </c>
-      <c r="V94" t="n">
+      <c r="Y94" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Where are not conservation areas in UK</t>
+          <t>What is the land use in the Happy Valley resort</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>the Happy Valley resort</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>landuse=conservation</t>
-        </is>
-      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
           <t>done</t>
@@ -6115,16 +6569,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
@@ -6135,40 +6581,35 @@
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="V95" t="n">
-        <v>8</v>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Y95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Where are not protected region in Assam </t>
+          <t>What is the literacy rate for each country in Africa</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Africa</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>landuse=conservation</t>
-        </is>
-      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
           <t>done</t>
@@ -6176,19 +6617,15 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
@@ -6199,36 +6636,39 @@
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="V96" t="n">
-        <v>8</v>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Where are the commercial areas in Amsterdam</t>
+          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>the Western USA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>landuse=commercial</t>
-        </is>
-      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 1970 to 1994</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
           <t>done</t>
@@ -6236,19 +6676,15 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
@@ -6259,36 +6695,35 @@
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="V97" t="n">
-        <v>8</v>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y97" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Where are the fire stations in Utrecht</t>
+          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
           <t>done</t>
@@ -6301,14 +6736,10 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
@@ -6319,27 +6750,30 @@
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="V98" t="n">
-        <v>8</v>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Y98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Where are the five star hotels in the Happy Valley ski resort</t>
+          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>the Happy Valley ski resort</t>
+          <t>Oleander city</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -6357,14 +6791,10 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
@@ -6375,40 +6805,35 @@
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="V99" t="n">
-        <v>8</v>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Y99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Where are the Hispanic food stores in Tarrant County</t>
+          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>cuisine=latin_american</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
           <t>done</t>
@@ -6421,12 +6846,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -6439,36 +6864,35 @@
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="V100" t="n">
-        <v>8</v>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Y100" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Where are the industrial areas in Utrecht</t>
+          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>landuse=industrial</t>
-        </is>
-      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
           <t>done</t>
@@ -6481,12 +6905,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -6499,36 +6923,35 @@
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="V101" t="n">
-        <v>8</v>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Y101" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+          <t>What is the mean center of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>beds=*, tourism=hotel</t>
-        </is>
-      </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
           <t>done</t>
@@ -6541,12 +6964,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -6559,36 +6982,39 @@
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="V102" t="n">
-        <v>8</v>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Y102" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Where are the rocky areas in Spain</t>
+          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>nature : bare_rock</t>
-        </is>
-      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
           <t>done</t>
@@ -6601,12 +7027,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="K103" t="inlineStr"/>
@@ -6619,36 +7045,35 @@
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="V103" t="n">
-        <v>8</v>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Y103" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Where are the ski pistes in Happy Valley ski resort</t>
+          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>site=piste</t>
-        </is>
-      </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
           <t>done</t>
@@ -6661,12 +7086,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
@@ -6679,36 +7104,39 @@
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="V104" t="n">
-        <v>8</v>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Y104" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Which houses are for sale in Utrecht</t>
+          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>building=house</t>
-        </is>
-      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
           <t>done</t>
@@ -6721,11 +7149,19 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
@@ -6735,36 +7171,39 @@
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>data editing,data queries</t>
-        </is>
-      </c>
-      <c r="V105" t="n">
-        <v>9</v>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y105" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
+          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
           <t>done</t>
@@ -6772,17 +7211,17 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -6790,11 +7229,7 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -6803,36 +7238,39 @@
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V106" t="n">
-        <v>0</v>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y106" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What is the median population for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
           <t>done</t>
@@ -6840,75 +7278,66 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="V107" t="n">
-        <v>14</v>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y107" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+          <t>What is the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>year_of_construction=*</t>
-        </is>
-      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
           <t>done</t>
@@ -6916,12 +7345,24 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
@@ -6931,36 +7372,39 @@
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
-      <c r="V108" t="n">
-        <v>1</v>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y108" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Which land use contains meteorological stations in Netherlands</t>
+          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
-        </is>
-      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
           <t>done</t>
@@ -6968,7 +7412,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6978,10 +7422,14 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
@@ -6991,36 +7439,39 @@
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>data queries,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="V109" t="n">
-        <v>2</v>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y109" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Which park is biggest in Utrecht</t>
+          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>leisure=park</t>
-        </is>
-      </c>
+      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
           <t>done</t>
@@ -7028,20 +7479,24 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
@@ -7051,36 +7506,39 @@
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="V110" t="n">
-        <v>8</v>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y110" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 2000 to 2007 </t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
           <t>done</t>
@@ -7088,17 +7546,17 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -7106,16 +7564,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
@@ -7123,22 +7573,25 @@
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="V111" t="n">
-        <v>5</v>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y111" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+          <t>What is the number of luxury hotels in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7148,11 +7601,7 @@
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>opening_hours=*</t>
-        </is>
-      </c>
+      <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
           <t>done</t>
@@ -7175,34 +7624,37 @@
       <c r="R112" t="inlineStr"/>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr">
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr">
         <is>
           <t>data queries</t>
         </is>
       </c>
-      <c r="V112" t="n">
+      <c r="Y112" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>abandoned:*=*, highway=motorway</t>
+          <t>shop=alcohol, amenity=library</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -7239,34 +7691,37 @@
       <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr">
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
-      <c r="V113" t="n">
-        <v>21</v>
+      <c r="Y113" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Which visitor facilities are in the Happy Valley</t>
+          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>information=visitor_centre</t>
+          <t>shop=alcohol, leisure=park</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -7279,9 +7734,21 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
@@ -7291,34 +7758,37 @@
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
-      <c r="V114" t="n">
-        <v>1</v>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y114" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
+          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>shop=alcohol, amenity=school</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -7333,15 +7803,19 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
@@ -7351,12 +7825,1807 @@
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr">
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y115" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>El Cajon</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y116" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Where are forestry lands in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Tag:landuse=forestry</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Y117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Where are not conservation areas in UK</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>landuse=conservation</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y118" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Where are not protected region in Assam in India</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>landuse=conservation</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y119" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Where are the auto accidents in Tarrant County in Texas</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Where are the commercial areas in Amsterdam</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>landuse=commercial</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y121" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Where are the five star hotels in the Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>the Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y122" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>cuisine=latin_american</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y123" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Where are the industrial areas in Utrecht</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>landuse=industrial</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y124" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>beds=*, tourism=hotel</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y125" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Where are the rocky areas in Spain</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>nature : bare_rock</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y126" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Where are the ski pistes in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>site=piste</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y127" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Which houses are for sale in Utrecht</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>building=house</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Y128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Y129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>year_of_construction=*</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Y130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Which park is biggest in Utrecht</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>leisure=park</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Y131" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>opening_hours=*</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Y136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Hillsboro</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>abandoned:*=*, highway=motorway</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y137" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Which visitor facilities are in the Happy Valley</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>the Happy Valley</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>information=visitor_centre</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Y138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr">
         <is>
           <t>data queries,network analysis,data queries</t>
         </is>
       </c>
-      <c r="V115" t="n">
+      <c r="Y139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y143" t="n">
         <v>4</v>
       </c>
     </row>

--- a/textToOps/data/processed/corpora_unique_ops_dropped.xlsx
+++ b/textToOps/data/processed/corpora_unique_ops_dropped.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y143"/>
+  <dimension ref="A1:Y152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,21 +683,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>What are the areas within a four-minute drive of each fire station at 2 a.m. on Tuesday in Utrecht</t>
+          <t>How many streetlights for each district in San Diego</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>highway=street_lamp</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>done</t>
@@ -710,24 +714,16 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -741,34 +737,30 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>What are the four fire stations with shortest network-based paths to 1202 Twin Peaks Blvd in San Francisco</t>
+          <t>What are the areas within a four-minute drive of each fire station at 2 a.m. on Tuesday in Utrecht</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>highway=*, name=Twin Peaks Boulevard, amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>done</t>
@@ -781,16 +773,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -804,20 +804,20 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
+          <t>What are the four fire stations with shortest network-based paths to 1202 Twin Peaks Blvd in San Francisco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -827,7 +827,11 @@
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>highway=*, name=Twin Peaks Boulevard, amenity=fire_station</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>done</t>
@@ -845,24 +849,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -875,34 +867,30 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>What are the two fire stations closest to each school in Utrecht</t>
+          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>done</t>
@@ -920,12 +908,24 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -938,25 +938,25 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What are the vote totals of an election for each precinct in Dallas</t>
+          <t>What are the land use inside the flood zones in Oleander</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -969,15 +969,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -993,36 +997,32 @@
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>What area are within 50 km from family physician services in Saskatchewan in Canada</t>
+          <t>What are the two fire stations closest to each school in Utrecht</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>amenity=doctor</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1060,34 +1060,30 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What areas are at least 3000 meters from the rivers in Spain</t>
+          <t>What are the vote totals of an election for each precinct in Dallas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>waterway=river</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>done</t>
@@ -1095,19 +1091,15 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1123,32 +1115,36 @@
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>What areas are inside 1000 foot of schools in El Cajon</t>
+          <t>What area are within 50 km from family physician services in Saskatchewan in Canada</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>El Cajon</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>amenity=school, amenity=kindergarten</t>
+          <t>amenity=doctor</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1195,11 +1191,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>What areas are more than 5000 meters from the roads in Spain</t>
+          <t>What areas are at least 3000 meters from the rivers in Spain</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1209,7 +1205,11 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>waterway=river</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>done</t>
@@ -1254,21 +1254,25 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>What areas are not flood plain in Houston</t>
+          <t>What areas are inside 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>amenity=school, amenity=kindergarten</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>done</t>
@@ -1281,10 +1285,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1300,25 +1308,25 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>What areas are green belt areas in Houston</t>
+          <t>What areas are more than 5000 meters from the roads in Spain</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1336,10 +1344,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1355,20 +1367,20 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>What areas are not classified as flood plain in Houston</t>
+          <t>What areas are not flood plain in Houston</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1419,11 +1431,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tell me not flood plain area in Houston</t>
+          <t>What areas are green belt areas in Houston</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1474,11 +1486,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>What areas are not conatined as green belt areas in Houston</t>
+          <t>What areas are not classified as flood plain in Houston</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1529,11 +1541,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>What areas are not green belt areas in Houston</t>
+          <t>Tell me not flood plain area in Houston</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1584,11 +1596,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>What areas are not park in Houston</t>
+          <t>What areas are not conatined as green belt areas in Houston</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1598,11 +1610,7 @@
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>leisure=park</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>done</t>
@@ -1613,7 +1621,11 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1630,20 +1642,20 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>What areas are not wetlands in Houston</t>
+          <t>What areas are not green belt areas in Houston</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1653,11 +1665,7 @@
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>natural=wetland</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>done</t>
@@ -1668,7 +1676,11 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1685,20 +1697,20 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from hospitals in Houston</t>
+          <t>What areas are not park in Houston</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1710,7 +1722,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>leisure=park</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1723,16 +1735,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -1748,20 +1752,20 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from schools in Houston</t>
+          <t>What areas are not wetlands in Houston</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1773,7 +1777,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>natural=wetland</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1786,16 +1790,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -1811,20 +1807,20 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
+          <t>What areas are outside 150 meters from hospitals in Houston</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1836,7 +1832,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>leisure=nature_reserve</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1883,23 +1879,23 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
+          <t>What areas are outside 150 meters from schools in Houston</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>residential=*</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1946,11 +1942,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>What areas are outside 300 meters from streams in Houston</t>
+          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1962,7 +1958,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>waterway=stream</t>
+          <t>leisure=nature_reserve</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2009,23 +2005,23 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>What areas are outside 3000 meters of the rivers in Spain</t>
+          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t>residential=*</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2072,27 +2068,23 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>What areas are outside 5 km of water bodies in Assam in India</t>
+          <t>What areas are outside 300 meters from streams in Houston</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>waterway=stream</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2139,11 +2131,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>What areas are outside 5000 meters of the roads in Spain</t>
+          <t>What areas are outside 3000 meters of the rivers in Spain</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2155,7 +2147,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>waterway=river</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2202,23 +2194,27 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from residence in Houston</t>
+          <t>What areas are outside 5 km of water bodies in Assam in India</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Houston</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>residential=*</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2265,23 +2261,23 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from water body in Houston</t>
+          <t>What areas are outside 5000 meters of the roads in Spain</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2328,23 +2324,23 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>What areas are within 10 miles of current transmission lines with a voltage greater than 400 in Colorado</t>
+          <t>What areas are outside 60 meters from residence in Houston</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>power=line</t>
+          <t>residential=*</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2391,23 +2387,23 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the arcades in Oleander</t>
+          <t>What areas are outside 60 meters from water body in Houston</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>leisure=amusement_arcade</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2454,23 +2450,23 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the schools in Oleander</t>
+          <t>What areas are within 10 miles of current transmission lines with a voltage greater than 400 in Colorado</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>power=line</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2517,27 +2513,23 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>What areas are within 15 minutes walking distance of a metro rail station in Kochi in India</t>
+          <t>What areas are within 1000 meters of the arcades in Oleander</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Kochi</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>highway=*,railway=station,station=subway</t>
+          <t>leisure=amusement_arcade</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2552,24 +2544,16 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2583,20 +2567,20 @@
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
+          <t>What areas are within 1000 meters of the schools in Oleander</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2608,7 +2592,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>shop=florist</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2623,24 +2607,16 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2654,32 +2630,36 @@
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
+          <t>What areas are within 15 minutes walking distance of a metro rail station in Kochi in India</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>Kochi</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>leisure=playground</t>
+          <t>highway=*,railway=station,station=subway</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2694,16 +2674,24 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2717,20 +2705,20 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2740,7 +2728,11 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>shop=florist</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>done</t>
@@ -2758,29 +2750,21 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2788,28 +2772,24 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y37" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2819,7 +2799,11 @@
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>leisure=playground</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>done</t>
@@ -2832,34 +2816,18 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -2867,28 +2835,24 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y38" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2963,11 +2927,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3042,11 +3006,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3121,25 +3085,21 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>What areas are within 300 meters of runways in Schiphol airport</t>
+          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Schiphol airport</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>aeroway=runway</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>done</t>
@@ -3152,18 +3112,34 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -3171,38 +3147,38 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
         </is>
       </c>
       <c r="Y42" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
+          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>landuse=religious</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
           <t>done</t>
@@ -3215,18 +3191,34 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -3234,36 +3226,40 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
         </is>
       </c>
       <c r="Y43" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
+          <t>What areas are within 300 meters of runways in Schiphol airport</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Schiphol airport</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>amenity=university</t>
+          <t>aeroway=runway</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3310,23 +3306,23 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
+          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> aeroway=*</t>
+          <t>landuse=religious</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3341,24 +3337,16 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -3372,32 +3360,32 @@
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>What areas are within 800 meter from major highways in Houston</t>
+          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>amenity=university</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3444,23 +3432,23 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
+          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Crook, Deschutes, Jefferson county</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>amenity=restaurant</t>
+          <t xml:space="preserve"> aeroway=*</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3475,16 +3463,24 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -3498,32 +3494,32 @@
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y47" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
+          <t>What areas are within 800 meter from major highways in Houston</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>railway=tram_stop, light_rail</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3570,27 +3566,23 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>What areas are within one mile of main roads in Loudoun County in US</t>
+          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Gresham</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>amenity=restaurant</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3637,21 +3629,25 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
+          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>railway=tram_stop, light_rail</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>done</t>
@@ -3659,29 +3655,21 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -3695,30 +3683,38 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y50" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>What areas do have slope larger than 10 percent in Spain</t>
+          <t>What areas are within one mile of main roads in Loudoun County in US</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>highway=motorway</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
           <t>done</t>
@@ -3726,29 +3722,21 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -3762,34 +3750,34 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y51" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
+          <t>What areas are accessible within reach two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>monitoring:weather=yes</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
           <t>done</t>
@@ -3797,29 +3785,25 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -3829,38 +3813,42 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
+        </is>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis,what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. urban tag를 그렇게 사용하지도 않는다</t>
         </is>
       </c>
       <c r="Y52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
+          <t>What areas are accessible within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>monitoring:weather=yes</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
           <t>done</t>
@@ -3868,29 +3856,25 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -3900,32 +3884,40 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis,what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. urban tag를 그렇게 사용하지도 않는다</t>
         </is>
       </c>
       <c r="Y53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
@@ -3935,29 +3927,25 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -3967,29 +3955,33 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis,what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. urban tag를 그렇게 사용하지도 않는다</t>
         </is>
       </c>
       <c r="Y54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -4002,7 +3994,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4038,25 +4030,25 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y55" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas do have population density less than 300 per square kilometer in UK</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -4069,29 +4061,25 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -4105,25 +4093,25 @@
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Y56" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas do have slope larger than 10 percent in Spain</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -4136,7 +4124,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4172,30 +4160,34 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y57" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
           <t>done</t>
@@ -4248,21 +4240,25 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
+          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
           <t>done</t>
@@ -4270,7 +4266,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4306,20 +4302,20 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y59" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
+          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4337,7 +4333,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4373,34 +4369,30 @@
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y60" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
+          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>highway=motorway, building=house</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
           <t>done</t>
@@ -4408,25 +4400,29 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -4440,34 +4436,30 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y61" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>amenity=school, building=house</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
           <t>done</t>
@@ -4475,27 +4467,27 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -4511,34 +4503,30 @@
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>What houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>amenity=school, building=house</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
           <t>done</t>
@@ -4546,27 +4534,27 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -4582,34 +4570,30 @@
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y63" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
+          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>shop=*, building=house</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
           <t>done</t>
@@ -4617,27 +4601,27 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
@@ -4653,34 +4637,30 @@
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y64" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>amenity=school, building=house</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
           <t>done</t>
@@ -4688,27 +4668,27 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -4724,34 +4704,30 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y65" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>amenity=school, building=house</t>
-        </is>
-      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
           <t>done</t>
@@ -4759,27 +4735,27 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="M66" t="inlineStr"/>
@@ -4795,20 +4771,20 @@
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Y66" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
+          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4820,7 +4796,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>shop=*, building=house</t>
+          <t>highway=motorway, building=house</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4830,29 +4806,25 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -4866,20 +4838,20 @@
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y67" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
+          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4891,7 +4863,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>leisure=park, building=house</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4901,25 +4873,29 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -4933,20 +4909,20 @@
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y68" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>What houses are for sale outside flood zone in Utrecht</t>
+          <t>What houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4958,7 +4934,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4968,21 +4944,29 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -4992,28 +4976,24 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>What houses are for sale in flood zone in Utrecht</t>
+          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -5025,7 +5005,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>shop=*, building=house</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5035,21 +5015,29 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -5059,28 +5047,24 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y70" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
+          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -5092,7 +5076,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5102,21 +5086,29 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5126,28 +5118,24 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y71" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>What houses are larger than 30 square meters in urban areas in Utrecht</t>
+          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -5159,7 +5147,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5169,21 +5157,29 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5193,28 +5189,24 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y72" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>What houses are greather than 30 square meters in urban areas in Utrecht</t>
+          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -5226,7 +5218,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>shop=*, building=house</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5236,21 +5228,29 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5260,28 +5260,24 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y73" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>What houses are for sale in urban areas in Utrecht</t>
+          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5293,7 +5289,7 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>leisure=park, building=house</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5308,15 +5304,19 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
@@ -5327,38 +5327,38 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y74" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>What is the area of currently mixed use zones in Gresham</t>
+          <t>What houses are for sale outside flood zone in Utrecht</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>boundary=urban, building=house</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
           <t>done</t>
@@ -5366,15 +5366,19 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -5386,34 +5390,42 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
         </is>
       </c>
       <c r="Y75" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>What is the average rating of street pavement for each borough in New York City</t>
+          <t>What houses are for sale in flood zone in Utrecht</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>boundary=urban, building=house</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
           <t>done</t>
@@ -5421,7 +5433,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5431,14 +5443,10 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Data editing</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -5449,36 +5457,40 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
         </is>
       </c>
       <c r="Y76" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Show me the central feature of bank branches in Oleander</t>
+          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5493,12 +5505,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -5511,41 +5523,41 @@
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
         </is>
       </c>
       <c r="Y77" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tell me the central feature of bank branches in Oleander</t>
+          <t>What houses are larger than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5560,12 +5572,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -5578,41 +5590,41 @@
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
         </is>
       </c>
       <c r="Y78" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
+          <t>What houses are greather than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5627,12 +5639,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -5645,41 +5657,41 @@
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
         </is>
       </c>
       <c r="Y79" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>What is weighted average coordinates of bank branches in Oleander</t>
+          <t>What houses are for sale in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5694,12 +5706,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -5712,43 +5724,39 @@
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
         </is>
       </c>
       <c r="Y80" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>What is the central feature of bank branches in Oleander</t>
+          <t>What is the area of currently mixed use zones in Gresham</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>amenity=bank</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
           <t>done</t>
@@ -5756,19 +5764,15 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Generalization</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
@@ -5779,42 +5783,34 @@
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y81" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
+          <t>What is the average rating of street pavement for each borough in New York City</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">the Western USA </t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>from 1970 to 1994</t>
-        </is>
-      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
@@ -5828,11 +5824,19 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
@@ -5847,32 +5851,32 @@
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y82" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>What is the density surface of rainfall measurements in the Netherlands</t>
+          <t>Show me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>the Netherlands</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5887,10 +5891,14 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -5901,37 +5909,41 @@
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
         </is>
       </c>
       <c r="Y83" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>What is the density surface of temperature measurements in Oleander city</t>
+          <t>Tell me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Oleander city</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5946,10 +5958,14 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -5960,35 +5976,43 @@
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
         </is>
       </c>
       <c r="Y84" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to green areas in Amsterdam</t>
+          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>amenity=bank</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
           <t>done</t>
@@ -6001,10 +6025,14 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
@@ -6015,25 +6043,29 @@
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
         </is>
       </c>
       <c r="Y85" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to hospitals in Oleander</t>
+          <t>What is weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -6045,7 +6077,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -6060,10 +6092,14 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
@@ -6074,37 +6110,41 @@
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
         </is>
       </c>
       <c r="Y86" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
+          <t>What is the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>landuse=recreation_ground</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -6119,10 +6159,14 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
@@ -6133,39 +6177,43 @@
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
         </is>
       </c>
       <c r="Y87" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to schools in Utrecht</t>
+          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t xml:space="preserve">the Western USA </t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>amenity=school</t>
-        </is>
-      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>from 1970 to 1994</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
           <t>done</t>
@@ -6173,12 +6221,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -6197,30 +6245,34 @@
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y88" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
+          <t>What is the density surface of rainfall measurements in the Netherlands</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>the Netherlands</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr">
         <is>
           <t>done</t>
@@ -6261,21 +6313,25 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
+          <t>What is the density surface of temperature measurements in Oleander city</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Oleander city</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
         <is>
           <t>done</t>
@@ -6316,11 +6372,11 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+          <t>What is the Euclidean distance to green areas in Amsterdam</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6371,25 +6427,25 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>What is the kernel density of crime in Surrey in UK</t>
+          <t>What is the Euclidean distance to hospitals in Oleander</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Surrey</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>amenity=hospital</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr">
         <is>
           <t>done</t>
@@ -6430,25 +6486,25 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
+          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Pasadena</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>landuse=recreation_ground</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr">
         <is>
           <t>done</t>
@@ -6489,23 +6545,23 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>What is the land use in Netherlands</t>
+          <t>What is the Euclidean distance to schools in Utrecht</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>landuse=*</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6518,7 +6574,11 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
@@ -6535,25 +6595,25 @@
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y94" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>What is the land use in the Happy Valley resort</t>
+          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>the Happy Valley resort</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -6569,7 +6629,11 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
@@ -6586,25 +6650,25 @@
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y95" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>What is the literacy rate for each country in Africa</t>
+          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Crook, Deschutes, Jefferson county</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -6617,12 +6681,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -6641,33 +6705,29 @@
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y96" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
+          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>the Western USA</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 1970 to 1994</t>
-        </is>
-      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
@@ -6676,12 +6736,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -6700,28 +6760,32 @@
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y97" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+          <t>What is the kernel density of crime in Surrey in UK</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>Surrey</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
@@ -6764,19 +6828,23 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
+          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Oleander city</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>Pasadena</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
@@ -6819,21 +6887,25 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
+          <t>What is the land use in Netherlands</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>landuse=*</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>done</t>
@@ -6844,16 +6916,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
@@ -6869,25 +6933,25 @@
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y100" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
+          <t>What is the land use in the Happy Valley resort</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Happy Valley resort</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -6903,16 +6967,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
@@ -6928,25 +6984,25 @@
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y101" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>What is the mean center of library patrons for each district in Oleander</t>
+          <t>What is the literacy rate for each country in Africa</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -6959,19 +7015,15 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
@@ -6987,31 +7039,31 @@
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y102" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
+          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>the Western USA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t xml:space="preserve"> from 1970 to 1994</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -7022,19 +7074,15 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
@@ -7050,20 +7098,20 @@
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y103" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
+          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -7086,14 +7134,10 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
@@ -7109,32 +7153,28 @@
       <c r="W104" t="inlineStr"/>
       <c r="X104" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y104" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
+          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Oleander city</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
@@ -7144,24 +7184,16 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
@@ -7176,32 +7208,28 @@
       <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Y105" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
+          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
@@ -7211,7 +7239,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7221,14 +7249,10 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
@@ -7243,32 +7267,28 @@
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y106" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>What is the median population for each census block in Tarrant County in Texas</t>
+          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
@@ -7278,7 +7298,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7288,14 +7308,10 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
@@ -7310,32 +7326,28 @@
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y107" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>What is the median household income for each census block in Tarrant County in Texas</t>
+          <t>What is the mean center of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
@@ -7345,7 +7357,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7355,14 +7367,10 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
@@ -7377,33 +7385,33 @@
       <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y108" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
+          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
@@ -7412,7 +7420,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7422,14 +7430,10 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
@@ -7444,32 +7448,28 @@
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y109" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
+          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7489,14 +7489,10 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
@@ -7511,33 +7507,33 @@
       <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Y110" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
+          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 2000 to 2007 </t>
-        </is>
-      </c>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
@@ -7587,19 +7583,23 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>What is the number of luxury hotels in Happy Valley ski resort</t>
+          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
@@ -7609,12 +7609,24 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
@@ -7629,34 +7641,34 @@
       <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y112" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
+          <t>What is the median population for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>El Cajon</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=library</t>
-        </is>
-      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
           <t>done</t>
@@ -7664,17 +7676,17 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -7696,34 +7708,34 @@
       <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y113" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+          <t>What is the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>El Cajon</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>shop=alcohol, leisure=park</t>
-        </is>
-      </c>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
           <t>done</t>
@@ -7731,17 +7743,17 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -7763,34 +7775,34 @@
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y114" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
+          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>El Cajon</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=school</t>
-        </is>
-      </c>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
           <t>done</t>
@@ -7798,17 +7810,17 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -7830,34 +7842,34 @@
       <c r="W115" t="inlineStr"/>
       <c r="X115" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y115" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>El Cajon</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
-        </is>
-      </c>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
           <t>done</t>
@@ -7865,17 +7877,17 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -7897,34 +7909,34 @@
       <c r="W116" t="inlineStr"/>
       <c r="X116" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y116" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Where are forestry lands in Happy Valley ski resort</t>
+          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Tag:landuse=forestry</t>
-        </is>
-      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 2000 to 2007 </t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
           <t>done</t>
@@ -7932,12 +7944,24 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
@@ -7952,34 +7976,30 @@
       <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Y117" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Where are not conservation areas in UK</t>
+          <t>What is the number of luxury hotels in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>landuse=conservation</t>
-        </is>
-      </c>
+      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
           <t>done</t>
@@ -7990,16 +8010,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
@@ -8015,36 +8027,32 @@
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y118" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Where are not protected region in Assam in India</t>
+          <t>What is the point density of trees in parks in Oleander</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>landuse=conservation</t>
+          <t>natural=tree</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -8064,10 +8072,14 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
@@ -8082,34 +8094,34 @@
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Y119" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Where are the auto accidents in Tarrant County in Texas</t>
+          <t>What is the population density in California</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr">
         <is>
           <t>done</t>
@@ -8117,16 +8129,24 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
           <t>data editing</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
@@ -8141,32 +8161,32 @@
       <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Y120" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Where are the commercial areas in Amsterdam</t>
+          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>landuse=commercial</t>
+          <t>shop=alcohol, amenity=library</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -8181,15 +8201,19 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
@@ -8204,30 +8228,34 @@
       <c r="W121" t="inlineStr"/>
       <c r="X121" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y121" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Where are the five star hotels in the Happy Valley ski resort</t>
+          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>the Happy Valley ski resort</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>shop=alcohol, leisure=park</t>
+        </is>
+      </c>
       <c r="G122" t="inlineStr">
         <is>
           <t>done</t>
@@ -8240,15 +8268,19 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
@@ -8263,36 +8295,32 @@
       <c r="W122" t="inlineStr"/>
       <c r="X122" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y122" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
+          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>El Cajon</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>cuisine=latin_american</t>
+          <t>shop=alcohol, amenity=school</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -8307,15 +8335,19 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr"/>
@@ -8330,32 +8362,32 @@
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y123" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Where are the industrial areas in Utrecht</t>
+          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
-          <t>landuse=industrial</t>
+          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8370,15 +8402,19 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr"/>
@@ -8393,20 +8429,20 @@
       <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y124" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+          <t>Where are forestry lands in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -8418,7 +8454,7 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>beds=*, tourism=hotel</t>
+          <t>Tag:landuse=forestry</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8431,16 +8467,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
@@ -8456,32 +8484,32 @@
       <c r="W125" t="inlineStr"/>
       <c r="X125" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Y125" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Where are the rocky areas in Spain</t>
+          <t>Where are not conservation areas in UK</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>nature : bare_rock</t>
+          <t>landuse=conservation</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8528,23 +8556,27 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Where are the ski pistes in Happy Valley ski resort</t>
+          <t>Where are not protected region in Assam in India</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>site=piste</t>
+          <t>landuse=conservation</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -8591,25 +8623,25 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Which houses are for sale in Utrecht</t>
+          <t>Where are the auto accidents in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>building=house</t>
-        </is>
-      </c>
+      <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
           <t>done</t>
@@ -8650,23 +8682,23 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
+          <t>Where are the commercial areas in Amsterdam</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>amenity=fire_station</t>
+          <t>landuse=commercial</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -8681,24 +8713,16 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -8712,34 +8736,30 @@
       <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y129" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+          <t>Where are the five star hotels in the Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>year_of_construction=*</t>
-        </is>
-      </c>
+      <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
           <t>done</t>
@@ -8750,8 +8770,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
@@ -8767,32 +8795,36 @@
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y130" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Which park is biggest in Utrecht</t>
+          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>cuisine=latin_american</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -8839,23 +8871,23 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
+          <t>Where are the industrial areas in Utrecht</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>landuse=industrial</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -8870,29 +8902,17 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
@@ -8905,32 +8925,32 @@
       <c r="W132" t="inlineStr"/>
       <c r="X132" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y132" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>beds=*, tourism=hotel</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -8945,29 +8965,17 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
@@ -8980,32 +8988,32 @@
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y133" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>Where are the rocky areas in Spain</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>nature : bare_rock</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -9020,29 +9028,17 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
@@ -9055,32 +9051,32 @@
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y134" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>Where are the ski pistes in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>site=piste</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -9095,29 +9091,17 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
@@ -9130,32 +9114,32 @@
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y135" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+          <t>Which houses are for sale in Utrecht</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>opening_hours=*</t>
+          <t>building=house</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -9165,10 +9149,14 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
@@ -9185,32 +9173,32 @@
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Y136" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>abandoned:*=*, highway=motorway</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -9225,20 +9213,24 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
@@ -9252,32 +9244,32 @@
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y137" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Which visitor facilities are in the Happy Valley</t>
+          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>information=visitor_centre</t>
+          <t>year_of_construction=*</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -9316,23 +9308,23 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
+          <t>Which land use contains meteorological stations in Netherlands</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -9347,7 +9339,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9370,32 +9362,32 @@
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
+          <t>Which park is biggest in Utrecht</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>leisure=park</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -9410,7 +9402,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9433,32 +9425,32 @@
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y140" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
+          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -9473,17 +9465,29 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
@@ -9496,32 +9500,32 @@
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
+          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -9536,17 +9540,29 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
@@ -9559,32 +9575,32 @@
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y142" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
+          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -9599,17 +9615,29 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
@@ -9622,10 +9650,577 @@
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr">
         <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>opening_hours=*</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Y145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Hillsboro</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>abandoned:*=*, highway=motorway</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y146" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Which visitor facilities are in the Happy Valley</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>the Happy Valley</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>information=visitor_centre</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Y147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr">
+        <is>
           <t>data queries,network analysis,data queries</t>
         </is>
       </c>
-      <c r="Y143" t="n">
+      <c r="Y148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Y152" t="n">
         <v>4</v>
       </c>
     </row>
